--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T01:19:57+00:00</t>
+    <t>2021-11-16T04:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T04:51:36+00:00</t>
+    <t>2021-11-17T13:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T13:47:01+00:00</t>
+    <t>2021-11-18T22:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T22:04:47+00:00</t>
+    <t>2021-11-19T00:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:04:47+00:00</t>
+    <t>2021-11-19T00:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:13:18+00:00</t>
+    <t>2021-11-19T18:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:00:23+00:00</t>
+    <t>2021-11-19T18:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:02:16+00:00</t>
+    <t>2021-11-19T21:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T21:14:24+00:00</t>
+    <t>2021-11-22T14:07:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Sequencing QC analysis</t>
+  </si>
+  <si>
+    <t>EGA</t>
+  </si>
+  <si>
+    <t>Exome germline analysis</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,6 +532,20 @@
         <v>48</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:07:32+00:00</t>
+    <t>2021-11-22T14:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -162,7 +162,7 @@
     <t>Sequencing QC analysis</t>
   </si>
   <si>
-    <t>EGA</t>
+    <t>GEAN</t>
   </si>
   <si>
     <t>Exome germline analysis</t>
@@ -540,7 +540,7 @@
         <v>49</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>50</v>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:10:59+00:00</t>
+    <t>2021-11-23T21:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T21:25:23+00:00</t>
+    <t>2021-11-24T19:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T19:02:36+00:00</t>
+    <t>2021-11-24T22:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T22:31:44+00:00</t>
+    <t>2021-11-30T21:05:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T21:05:25+00:00</t>
+    <t>2021-12-08T16:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T16:36:19+00:00</t>
+    <t>2021-12-14T20:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T20:47:31+00:00</t>
+    <t>2022-03-11T19:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:19:27+00:00</t>
+    <t>2022-03-11T19:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:55:52+00:00</t>
+    <t>2022-04-11T17:12:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-analysis-type.xlsx
+++ b/ig/CodeSystem-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:12:20+00:00</t>
+    <t>2022-04-12T17:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
